--- a/imdb_movies.xlsx
+++ b/imdb_movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Anh\Desktop\4iz470_semestralka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A188F4B5-B726-4F1F-9775-CDC83BDDADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483300A-D2CF-4183-BE6C-93344B2FFD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>movie_title</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>average_rating</t>
   </si>
   <si>
     <t>reviews</t>
@@ -149,9 +146,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,21 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -516,10 +501,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,11 +512,10 @@
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,215 +525,176 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
         <v>2024</v>
       </c>
-      <c r="D2" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2004</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
         <v>2019</v>
       </c>
-      <c r="D3" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7.6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
         <v>2024</v>
       </c>
-      <c r="D5" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7.6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D7" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D10" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D11" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5.9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
